--- a/biology/Zoologie/Conus_cashi/Conus_cashi.xlsx
+++ b/biology/Zoologie/Conus_cashi/Conus_cashi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus cashi est une espèce fossile de mollusques gastéropodes marins de la famille des Conidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille atteint 26 mm.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est seulement trouvée comme fossile dans le Néogène de la République dominicaine.
 </t>
@@ -575,9 +591,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus cashi a été décrite pour la première fois en 2015 par le malacologiste américain Jonathan R. Hendricks (d)[1],[2],[3].
-Identifiants taxonomiques
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus cashi a été décrite pour la première fois en 2015 par le malacologiste américain Jonathan R. Hendricks (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_cashi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_cashi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Identifiants taxonomiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ressources relatives au vivant : Paleobiology Database World Register of Marine Species  
 Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus cashi dans les principales bases sont les suivants :
 CoL : XX4S - WoRMS : 843163
